--- a/ds160 assignment 1 excel.xlsx
+++ b/ds160 assignment 1 excel.xlsx
@@ -8,42 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8afb13386f1bc15f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263AF2BF-8358-4B60-A9F3-2D8AE78792E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{3D3D9138-FD18-4F68-BE4C-0AC71ED26498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5EFC42E-0F28-42D0-B543-3CADA3A1149F}"/>
+    <workbookView minimized="1" xWindow="3936" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{C5EFC42E-0F28-42D0-B543-3CADA3A1149F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Transformed Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet10" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet11" sheetId="13" r:id="rId10"/>
-    <sheet name="Sheet12" sheetId="14" r:id="rId11"/>
+    <sheet name="summary statistics" sheetId="6" r:id="rId3"/>
+    <sheet name="gender analysis" sheetId="7" r:id="rId4"/>
+    <sheet name="scores by subject" sheetId="9" r:id="rId5"/>
+    <sheet name="age analyisis" sheetId="11" r:id="rId6"/>
+    <sheet name="study hours and exam scores" sheetId="12" r:id="rId7"/>
+    <sheet name="age and study hours" sheetId="13" r:id="rId8"/>
+    <sheet name="correlation" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$92</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$92</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$2:$E$92</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId12"/>
-    <pivotCache cacheId="12" r:id="rId13"/>
-    <pivotCache cacheId="16" r:id="rId14"/>
-    <pivotCache cacheId="36" r:id="rId15"/>
-    <pivotCache cacheId="24" r:id="rId16"/>
-    <pivotCache cacheId="28" r:id="rId17"/>
-    <pivotCache cacheId="42" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="35">
   <si>
     <t>Student ID</t>
   </si>
@@ -155,12 +147,6 @@
   </si>
   <si>
     <t>Average of Age</t>
-  </si>
-  <si>
-    <t>Sum of Study Hours</t>
-  </si>
-  <si>
-    <t>Sum of Exam Score</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -364,11 +350,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -381,9 +366,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2415,7 +2399,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ds160 assignment 1 excel.xlsx]Sheet5!PivotTable1</c:name>
+    <c:name>[ds160 assignment 1 excel.xlsx]gender analysis!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2519,7 +2503,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$1</c:f>
+              <c:f>'gender analysis'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2540,7 +2524,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$2:$A$4</c:f>
+              <c:f>'gender analysis'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2554,7 +2538,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$2:$B$4</c:f>
+              <c:f>'gender analysis'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2806,7 +2790,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ds160 assignment 1 excel.xlsx]Sheet10!PivotTable10</c:name>
+    <c:name>[ds160 assignment 1 excel.xlsx]study hours and exam scores!PivotTable10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2948,7 +2932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet10!$B$3</c:f>
+              <c:f>'study hours and exam scores'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3033,7 +3017,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet10!$A$4:$A$10</c:f>
+              <c:f>'study hours and exam scores'!$A$4:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3059,7 +3043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet10!$B$4:$B$10</c:f>
+              <c:f>'study hours and exam scores'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3426,12 +3410,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3469,7 +3453,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{A5F9C33A-B8B6-4B5D-9A18-0D9E8576C07A}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Study Hours</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3483,7 +3467,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C7EE5D28-D01E-4B0E-9CF1-B15008C3D1D5}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Exam Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6386,15 +6370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>53879</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>102369</xdr:rowOff>
+      <xdr:colOff>1067339</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>538788</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>74660</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333048</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6430,8 +6414,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4310303" y="4535824"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5334539" y="5779269"/>
+              <a:ext cx="4576849" cy="2715491"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6571,27 +6555,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gavin Trumbull" refreshedDate="45302.405242129629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="90" xr:uid="{02D7099A-8BE8-4826-BF00-1825FEDD72D5}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="E1:F91" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="Exam Score" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="97"/>
-    </cacheField>
-    <cacheField name="Study Hours" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gavin Trumbull" refreshedDate="45302.407324537038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{4F77BA46-44A5-496A-AF09-E9EBCE2E4338}">
   <cacheSource type="worksheet">
     <worksheetSource ref="E1:F46" sheet="Sheet1"/>
@@ -6612,7 +6575,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gavin Trumbull" refreshedDate="45302.407760300928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{A33A300F-905A-4B32-A73A-37E37C620B1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
@@ -6662,7 +6625,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gavin Trumbull" refreshedDate="45302.414878009258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{FC258FE9-C5E5-4442-915C-A27230329A97}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D1:F1048576" sheet="Sheet1"/>
@@ -6688,25 +6651,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gavin Trumbull" refreshedDate="45302.425165740744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="90" xr:uid="{027334CD-D309-4D4A-9752-544F2EA96D10}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="E1:E91" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="Exam Score" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="97"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gavin Trumbull" refreshedDate="45302.437915162038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{59A184D5-6DD5-43B7-8646-36B623A29B19}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F7" sheet="Sheet1"/>
@@ -7114,362 +7059,182 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
-  <r>
-    <n v="85"/>
-    <n v="5"/>
-  </r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
   <r>
     <n v="92"/>
     <n v="4"/>
   </r>
   <r>
-    <n v="78"/>
-    <n v="3"/>
-  </r>
-  <r>
     <n v="95"/>
     <n v="6"/>
   </r>
   <r>
+    <n v="72"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="6"/>
+  </r>
+  <r>
     <n v="88"/>
     <n v="4"/>
   </r>
   <r>
-    <n v="72"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="5"/>
-  </r>
-  <r>
     <n v="96"/>
     <n v="6"/>
   </r>
   <r>
-    <n v="82"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="78"/>
+    <n v="90"/>
     <n v="4"/>
   </r>
   <r>
-    <n v="78"/>
-    <n v="3"/>
+    <n v="88"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="92"/>
-    <n v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="85"/>
     <n v="4"/>
   </r>
   <r>
+    <n v="92"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="4"/>
+  </r>
+  <r>
     <n v="91"/>
     <n v="6"/>
   </r>
   <r>
-    <n v="70"/>
-    <n v="3"/>
+    <n v="87"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="88"/>
     <n v="4"/>
   </r>
   <r>
-    <n v="82"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="96"/>
+    <n v="92"/>
     <n v="6"/>
   </r>
   <r>
-    <n v="75"/>
-    <n v="3"/>
+    <n v="89"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="90"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="88"/>
     <n v="6"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="3"/>
   </r>
   <r>
     <n v="92"/>
     <n v="4"/>
   </r>
   <r>
-    <n v="86"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="5"/>
-  </r>
-  <r>
     <n v="95"/>
     <n v="6"/>
   </r>
   <r>
-    <n v="73"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="3"/>
-  </r>
-  <r>
     <n v="88"/>
     <n v="4"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="5"/>
   </r>
   <r>
     <n v="97"/>
@@ -7479,191 +7244,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
-  <r>
-    <n v="92"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <n v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
   <r>
     <n v="2"/>
@@ -8404,7 +7984,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
   <r>
     <x v="0"/>
@@ -8777,282 +8357,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
-  <r>
-    <n v="85"/>
-  </r>
-  <r>
-    <n v="92"/>
-  </r>
-  <r>
-    <n v="78"/>
-  </r>
-  <r>
-    <n v="95"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="72"/>
-  </r>
-  <r>
-    <n v="90"/>
-  </r>
-  <r>
-    <n v="96"/>
-  </r>
-  <r>
-    <n v="82"/>
-  </r>
-  <r>
-    <n v="78"/>
-  </r>
-  <r>
-    <n v="78"/>
-  </r>
-  <r>
-    <n v="92"/>
-  </r>
-  <r>
-    <n v="85"/>
-  </r>
-  <r>
-    <n v="91"/>
-  </r>
-  <r>
-    <n v="70"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="82"/>
-  </r>
-  <r>
-    <n v="96"/>
-  </r>
-  <r>
-    <n v="75"/>
-  </r>
-  <r>
-    <n v="90"/>
-  </r>
-  <r>
-    <n v="82"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="79"/>
-  </r>
-  <r>
-    <n v="92"/>
-  </r>
-  <r>
-    <n v="86"/>
-  </r>
-  <r>
-    <n v="93"/>
-  </r>
-  <r>
-    <n v="71"/>
-  </r>
-  <r>
-    <n v="84"/>
-  </r>
-  <r>
-    <n v="89"/>
-  </r>
-  <r>
-    <n v="94"/>
-  </r>
-  <r>
-    <n v="77"/>
-  </r>
-  <r>
-    <n v="85"/>
-  </r>
-  <r>
-    <n v="90"/>
-  </r>
-  <r>
-    <n v="92"/>
-  </r>
-  <r>
-    <n v="81"/>
-  </r>
-  <r>
-    <n v="86"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="95"/>
-  </r>
-  <r>
-    <n v="73"/>
-  </r>
-  <r>
-    <n v="80"/>
-  </r>
-  <r>
-    <n v="87"/>
-  </r>
-  <r>
-    <n v="89"/>
-  </r>
-  <r>
-    <n v="72"/>
-  </r>
-  <r>
-    <n v="94"/>
-  </r>
-  <r>
-    <n v="83"/>
-  </r>
-  <r>
-    <n v="91"/>
-  </r>
-  <r>
-    <n v="76"/>
-  </r>
-  <r>
-    <n v="87"/>
-  </r>
-  <r>
-    <n v="84"/>
-  </r>
-  <r>
-    <n v="90"/>
-  </r>
-  <r>
-    <n v="81"/>
-  </r>
-  <r>
-    <n v="93"/>
-  </r>
-  <r>
-    <n v="79"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="77"/>
-  </r>
-  <r>
-    <n v="82"/>
-  </r>
-  <r>
-    <n v="86"/>
-  </r>
-  <r>
-    <n v="89"/>
-  </r>
-  <r>
-    <n v="73"/>
-  </r>
-  <r>
-    <n v="91"/>
-  </r>
-  <r>
-    <n v="81"/>
-  </r>
-  <r>
-    <n v="94"/>
-  </r>
-  <r>
-    <n v="75"/>
-  </r>
-  <r>
-    <n v="83"/>
-  </r>
-  <r>
-    <n v="90"/>
-  </r>
-  <r>
-    <n v="85"/>
-  </r>
-  <r>
-    <n v="79"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="84"/>
-  </r>
-  <r>
-    <n v="92"/>
-  </r>
-  <r>
-    <n v="77"/>
-  </r>
-  <r>
-    <n v="89"/>
-  </r>
-  <r>
-    <n v="83"/>
-  </r>
-  <r>
-    <n v="91"/>
-  </r>
-  <r>
-    <n v="76"/>
-  </r>
-  <r>
-    <n v="86"/>
-  </r>
-  <r>
-    <n v="80"/>
-  </r>
-  <r>
-    <n v="93"/>
-  </r>
-  <r>
-    <n v="74"/>
-  </r>
-  <r>
-    <n v="85"/>
-  </r>
-  <r>
-    <n v="87"/>
-  </r>
-  <r>
-    <n v="90"/>
-  </r>
-  <r>
-    <n v="78"/>
-  </r>
-  <r>
-    <n v="92"/>
-  </r>
-  <r>
-    <n v="82"/>
-  </r>
-  <r>
-    <n v="95"/>
-  </r>
-  <r>
-    <n v="71"/>
-  </r>
-  <r>
-    <n v="88"/>
-  </r>
-  <r>
-    <n v="86"/>
-  </r>
-  <r>
-    <n v="97"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <n v="90"/>
@@ -9106,7 +8411,26 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D9B7751-374C-4A7F-87F6-CBA16AAD724B}" name="PivotTable4" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B390947-D1D9-43F4-8563-E607551AB862}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H54:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D9B7751-374C-4A7F-87F6-CBA16AAD724B}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N88:P92" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -9167,27 +8491,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B390947-D1D9-43F4-8563-E607551AB862}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H54:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{892F858F-8037-48CF-BEB3-527097AE4398}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{892F858F-8037-48CF-BEB3-527097AE4398}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -9243,44 +8548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EC26508-9AA6-45D4-81D8-7470C9DA5791}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Study Hours" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Exam Score" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BA8B663-5FF2-4DA7-B9CC-B60135D94F8D}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BA8B663-5FF2-4DA7-B9CC-B60135D94F8D}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -9332,35 +8600,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A7ECA0D-C33A-4CE4-B874-7B62FA25ADC7}" name="PivotTable6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="1">
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Exam Score" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6B55D2F-6FF5-4B61-970A-262ED6336348}" name="PivotTable7" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="age">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6B55D2F-6FF5-4B61-970A-262ED6336348}" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="age">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -9420,8 +8661,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1D4ED94-3E60-4350-B643-4919A817B14C}" name="PivotTable10" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="study hours">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1D4ED94-3E60-4350-B643-4919A817B14C}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="study hours">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -9496,8 +8737,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6293D373-DA89-4875-BD40-76E1E247AF01}" name="PivotTable11" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6293D373-DA89-4875-BD40-76E1E247AF01}" name="PivotTable11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -9869,11 +9110,13 @@
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10957,9 +10200,9 @@
       <c r="F54">
         <v>4</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -10980,9 +10223,9 @@
       <c r="F55">
         <v>5</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="9"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -11003,9 +10246,9 @@
       <c r="F56">
         <v>5</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="9"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -11026,9 +10269,9 @@
       <c r="F57">
         <v>5</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="9"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -11049,9 +10292,9 @@
       <c r="F58">
         <v>4</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="9"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -11072,9 +10315,9 @@
       <c r="F59">
         <v>5</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="9"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -11095,9 +10338,9 @@
       <c r="F60">
         <v>3</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="9"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -11118,9 +10361,9 @@
       <c r="F61">
         <v>5</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="9"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -11141,9 +10384,9 @@
       <c r="F62">
         <v>5</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="9"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -11164,9 +10407,9 @@
       <c r="F63">
         <v>4</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="9"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -11187,9 +10430,9 @@
       <c r="F64">
         <v>5</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="9"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -11210,9 +10453,9 @@
       <c r="F65">
         <v>3</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="9"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -11233,9 +10476,9 @@
       <c r="F66">
         <v>3</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="9"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -11256,9 +10499,9 @@
       <c r="F67">
         <v>5</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="9"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -11279,9 +10522,9 @@
       <c r="F68">
         <v>4</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="9"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -11302,9 +10545,9 @@
       <c r="F69">
         <v>5</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="9"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
@@ -11325,9 +10568,9 @@
       <c r="F70">
         <v>3</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="9"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -11348,9 +10591,9 @@
       <c r="F71">
         <v>5</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="12"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -11691,14 +10934,14 @@
       <c r="F88">
         <v>3</v>
       </c>
-      <c r="N88" s="17" t="s">
+      <c r="N88" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -11720,13 +10963,13 @@
       <c r="F89">
         <v>3</v>
       </c>
-      <c r="N89" s="13" t="s">
+      <c r="N89" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89">
         <v>89.355555555555554</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89">
         <v>4.9555555555555557</v>
       </c>
     </row>
@@ -11749,13 +10992,13 @@
       <c r="F90">
         <v>3</v>
       </c>
-      <c r="N90" s="13" t="s">
+      <c r="N90" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O90" s="3">
+      <c r="O90">
         <v>80.666666666666671</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90">
         <v>3.9777777777777779</v>
       </c>
     </row>
@@ -11778,20 +11021,18 @@
       <c r="F91">
         <v>3</v>
       </c>
-      <c r="N91" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
+      <c r="N91" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N92" s="13" t="s">
+      <c r="N92" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O92">
         <v>85.011111111111106</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P92">
         <v>4.4666666666666668</v>
       </c>
     </row>
@@ -11804,7 +11045,960 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA3BB23-2A30-400A-8ED8-EF04BC26D09B}">
+  <dimension ref="B2:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFCAF94-A2CE-4166-9FF0-6A89CDA9B432}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>85.011111111111106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>4.4666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.72695462879103412</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0.12054806180935684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>6.8964971477456523</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1.1436193285089784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>47.561672908863912</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1.3078651685393268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>-0.76853829231897386</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>-1.2536384011558175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>-0.36939724643752142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>-3.1551123111785505E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>7651</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13">
+        <v>90</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFCE7B-69C6-4525-B76C-CA867AB2C61E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16">
+        <v>17.533333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16">
+        <v>17.844444444444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="16">
+        <v>17.68888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E11606-ADCA-4D47-A585-F23C1F0A76B5}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16">
+        <v>83.41379310344827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16">
+        <v>85.677419354838705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="16">
+        <v>85.86666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16">
+        <v>85.011111111111106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82372D9-D36C-4C54-9F6F-A11F049414F3}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16">
+        <v>90.692307692307693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16">
+        <v>77.565217391304344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16">
+        <v>85.909090909090907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16">
+        <v>88.238095238095241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="16">
+        <v>85.011111111111106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD069C-D4D0-481B-9D13-6B4BF3119B47}">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>76.045454545454547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>87.217391304347828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>85.272727272727266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16">
+        <v>85.011111111111106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A88D257-1097-4E99-BA62-AED810A5B1B0}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -11821,1042 +12015,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>95</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>96</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>97</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>17.666666666666668</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142954C4-7DF7-4B94-8A25-89E50F85BD6F}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0.76435771638478833</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA3BB23-2A30-400A-8ED8-EF04BC26D09B}">
-  <dimension ref="B2:C94"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="3">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFCAF94-A2CE-4166-9FF0-6A89CDA9B432}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection sqref="A1:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14">
-        <v>85.011111111111106</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14">
-        <v>4.4666666666666668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.72695462879103412</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.12054806180935684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14">
-        <v>86</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14">
-        <v>88</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14">
-        <v>6.8964971477456523</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1.1436193285089784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="14">
-        <v>47.561672908863912</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1.3078651685393268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14">
-        <v>-0.76853829231897386</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>-1.2536384011558175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14">
-        <v>-0.36939724643752142</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-3.1551123111785505E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="14">
-        <v>27</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="14">
-        <v>70</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="14">
-        <v>97</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="14">
-        <v>7651</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="14">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="15">
-        <v>90</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="15">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFCE7B-69C6-4525-B76C-CA867AB2C61E}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="18">
-        <v>17.533333333333335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="18">
-        <v>17.844444444444445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="18">
-        <v>17.68888888888889</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D71BF9-7461-4523-BEF5-40B393470A1E}">
-  <dimension ref="A3:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>402</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7651</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E11606-ADCA-4D47-A585-F23C1F0A76B5}">
-  <dimension ref="A3:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="18">
-        <v>83.41379310344827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="18">
-        <v>85.677419354838705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18">
-        <v>85.86666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="18">
-        <v>85.011111111111106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62146E41-A7C8-498C-982E-F312783AB1F8}">
-  <dimension ref="A3:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>7651</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82372D9-D36C-4C54-9F6F-A11F049414F3}">
-  <dimension ref="A3:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>16</v>
-      </c>
-      <c r="B4" s="18">
-        <v>90.692307692307693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>17</v>
-      </c>
-      <c r="B5" s="18">
-        <v>77.565217391304344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>18</v>
-      </c>
-      <c r="B6" s="18">
-        <v>85.909090909090907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>19</v>
-      </c>
-      <c r="B7" s="18">
-        <v>88.238095238095241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="18">
-        <v>85.011111111111106</v>
       </c>
     </row>
   </sheetData>
@@ -12865,83 +12075,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD069C-D4D0-481B-9D13-6B4BF3119B47}">
-  <dimension ref="A3:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142954C4-7DF7-4B94-8A25-89E50F85BD6F}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B10"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18">
-        <v>76.045454545454547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
-        <v>87.217391304347828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18">
-        <v>85.272727272727266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="18">
-        <v>85.011111111111106</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.76435771638478833</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>